--- a/biology/Zoologie/Guadalca_insularis/Guadalca_insularis.xlsx
+++ b/biology/Zoologie/Guadalca_insularis/Guadalca_insularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guadalca
-Guadalca insularis, unique représentant du genre Guadalca, est une espèce de libellules de la famille des Corduliidae (sous-ordre des Anisoptères, ordre des Odonates)[1].
+Guadalca insularis, unique représentant du genre Guadalca, est une espèce de libellules de la famille des Corduliidae (sous-ordre des Anisoptères, ordre des Odonates).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette libellule est endémique des Salomon où elle se rencontre sur les îles de Guadalcanal et de Malaita[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette libellule est endémique des Salomon où elle se rencontre sur les îles de Guadalcanal et de Malaita.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Guadalca et l'espèce Guadalca insularis ont été décrits en 1957 par l'entomologiste britannique Douglas Eric Kimmins (d) (1905-1985)[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Guadalca et l'espèce Guadalca insularis ont été décrits en 1957 par l'entomologiste britannique Douglas Eric Kimmins (d) (1905-1985),.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que non expliqué dans la publication originale, le nom générique, Guadalca, pourrait faire référence à l'île de Guadalcanal où ont été collectés les spécimens décrits[4].
-Son épithète spécifique, du latin insularis, « des îles », fait également référence à sa localité type[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que non expliqué dans la publication originale, le nom générique, Guadalca, pourrait faire référence à l'île de Guadalcanal où ont été collectés les spécimens décrits.
+Son épithète spécifique, du latin insularis, « des îles », fait également référence à sa localité type.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) D. E. Kimmins, « Odonata collected by Mr. J.D. Bradley on Guadalcanal Island 1953-1954 », Bulletin of the British Museum (Natural History). Entomology, Londres, Musée d'histoire naturelle de Londres, vol. 5,‎ 1957, p. 311-320 (ISSN 0524-6431, OCLC 1308526, DOI 10.5962/BHL.PART.1513, lire en ligne)</t>
         </is>
